--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -540,20 +540,52 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -986,7 +986,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Carlie will bring the white camry to the office in the morning.</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -1026,19 +1030,15 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t> </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Can then take back the red camry after the store</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1081,14 +1081,10 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
@@ -1148,18 +1144,17 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1229,15 +1224,19 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>*bring wht Camry</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
@@ -1296,18 +1295,18 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Altima</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -1368,20 +1367,15 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1453,15 +1447,20 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -1533,15 +1532,20 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1608,12 +1612,12 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1691,12 +1695,12 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1770,12 +1774,12 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1849,12 +1853,12 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1928,19 +1932,15 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
@@ -2008,19 +2008,15 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
@@ -2079,12 +2075,12 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2142,11 +2138,19 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2202,11 +2206,19 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
@@ -2393,7 +2405,11 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -2436,7 +2452,11 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -1234,7 +1234,8 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>*bring wht Camry</t>
+          <t>Driver,
+Wht Camry</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1535,17 +1536,8 @@
           <t>6)</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -1234,8 +1234,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Driver,
-Wht Camry</t>
+          <t>*Bring Wht Camry to office</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1536,7 +1535,11 @@
           <t>6)</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
@@ -1609,7 +1612,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1692,7 +1695,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1771,7 +1774,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1850,7 +1853,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1929,7 +1932,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -2005,10 +2008,14 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
@@ -2072,7 +2079,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2135,7 +2142,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2196,21 +2203,9 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -1375,7 +1375,12 @@
           <t>Greg</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
@@ -1450,17 +1455,8 @@
           <t>5)</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -1234,7 +1234,8 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>*Bring Wht Camry to office</t>
+          <t>Driver,
+Wht Camry</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1300,15 +1301,10 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
@@ -1372,13 +1368,13 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Altima</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -1455,8 +1451,17 @@
           <t>5)</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
@@ -2004,14 +2009,10 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
@@ -2075,7 +2076,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2138,7 +2139,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2199,9 +2200,21 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -835,7 +835,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PREMIER COOP HAREWARE, MT HOREB</t>
+          <t>PREMIER COOP HARDWARE, MT HOREB</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -843,7 +843,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>FESTIVAL #2707, NEENAH - LIFO</t>
+          <t>647 S GREEN BAY RD</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -892,11 +892,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>647 S GREEN BAY RD</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -792,7 +792,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>647 S GREEN BAY RD</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -841,11 +841,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>647 S GREEN BAY RD</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -1735,7 +1735,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>until 12:00</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -3192,7 +3196,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3259,7 +3263,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3330,12 +3334,13 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3389,13 +3394,12 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3434,21 +3438,9 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -1186,10 +1186,14 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Until 11:15</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1262,7 +1266,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -1329,7 +1333,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -1409,7 +1413,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1490,14 +1494,10 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1570,12 +1570,12 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1649,12 +1649,12 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="T23" t="inlineStr"/>
@@ -1732,12 +1732,12 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>until 12:00</t>
+          <t>work w/ Leyna</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1815,10 +1815,14 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>until 12:00</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1890,14 +1894,10 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1969,10 +1969,14 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -2038,8 +2042,16 @@
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
@@ -2165,11 +2177,7 @@
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>4:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
@@ -2231,7 +2239,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2283,7 +2291,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2338,7 +2346,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>METRO #180, SHOREWOOD HILLS-UNIVERSITY</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2381,7 +2389,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>3650 UNIVERSITY AVENUE</t>
+          <t>METRO #180, SHOREWOOD HILLS-UNIVERSITY</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2424,7 +2432,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/BuM3RhBQEKw</t>
+          <t>3650 UNIVERSITY AVENUE</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2469,7 +2477,11 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/BuM3RhBQEKw</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
@@ -2503,21 +2515,9 @@
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
@@ -2564,18 +2564,17 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
@@ -2620,15 +2619,20 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
@@ -2667,19 +2671,15 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>work w/ Michael</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
@@ -2730,17 +2730,17 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>work w/ Michael</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2789,12 +2789,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2849,12 +2849,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2920,12 +2920,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2987,12 +2987,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3058,18 +3058,17 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3135,17 +3134,18 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3207,12 +3207,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3274,12 +3274,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3344,9 +3344,21 @@
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -2782,7 +2782,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2837,15 +2837,10 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2909,12 +2904,13 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>work w/ Michael</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -2980,10 +2976,14 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>work w/ Michael</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3047,14 +3047,10 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3123,7 +3119,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3196,7 +3192,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3263,7 +3259,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3334,13 +3330,12 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3406,12 +3401,13 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3450,9 +3446,21 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y56"/>
+  <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
       <c r="W21" t="inlineStr">
         <is>
           <t>Driver,
-Optima</t>
+Santa Fe</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1586,10 +1586,14 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1665,12 +1669,12 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>work w/ Justin</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -1748,12 +1752,12 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>work w/ Justin</t>
+          <t>work w/ Leyna</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1831,14 +1835,10 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -2296,21 +2296,9 @@
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2395,7 +2383,11 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2440,7 +2432,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>5:30 AM MEET OFFICE</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2487,7 +2479,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2522,7 +2514,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2709, FORT ATKINSON - LIFO</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2581,7 +2573,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>FESTIVAL #2709, FORT ATKINSON - LIFO</t>
+          <t>328 WASHINGTON ST</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2637,7 +2629,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>328 WASHINGTON ST</t>
+          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2684,7 +2676,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
+          <t>PARTIAL RESET-REMAPPED</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2745,11 +2737,7 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>PARTIAL RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2803,9 +2791,21 @@
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2860,19 +2860,15 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>@ Store, (w/ Monica), Equip</t>
-        </is>
-      </c>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2932,12 +2928,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3003,15 +2999,20 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3070,20 +3071,15 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -3147,18 +3143,18 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
           <t>@ Store,
-w/ DJ</t>
+Optima</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
@@ -3219,12 +3215,12 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3286,12 +3282,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3357,15 +3353,19 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr"/>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3417,12 +3417,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3466,21 +3466,9 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3533,7 +3521,11 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -3562,43 +3554,12 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -1413,7 +1413,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1494,10 +1494,14 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1570,12 +1574,12 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1653,14 +1657,10 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1736,12 +1736,12 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>until 12:00</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
@@ -1819,14 +1819,10 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>until 12:00</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1894,10 +1890,14 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1969,14 +1969,10 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -2042,16 +2038,8 @@
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
@@ -2177,7 +2165,11 @@
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>4:30 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
@@ -2239,7 +2231,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>4:30 AM OFFICE MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2291,7 +2283,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2334,7 +2326,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>METRO #180, SHOREWOOD HILLS-UNIVERSITY</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2377,7 +2369,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>METRO #180, SHOREWOOD HILLS-UNIVERSITY</t>
+          <t>3650 UNIVERSITY AVENUE</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2424,7 +2416,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>3650 UNIVERSITY AVENUE</t>
+          <t>https://goo.gl/maps/BuM3RhBQEKw</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2469,11 +2461,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/BuM3RhBQEKw</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
@@ -2507,9 +2495,21 @@
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
@@ -2556,17 +2556,18 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
@@ -2611,20 +2612,15 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
@@ -2663,15 +2659,19 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>work w/ Michael</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
@@ -2722,17 +2722,17 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2777,12 +2777,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2844,12 +2844,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2912,12 +2912,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2983,12 +2983,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3055,17 +3055,18 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3126,18 +3127,17 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3199,12 +3199,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3266,12 +3266,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3335,21 +3335,9 @@
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1002,7 +1002,11 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>*Greg bringing Red van + Santa Fe stools to store</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1040,21 +1044,9 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
@@ -1113,15 +1105,19 @@
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Andrew</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -1181,19 +1177,15 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Until 11:15</t>
-        </is>
-      </c>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1261,15 +1253,19 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Until 11:15</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1328,12 +1324,12 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -1408,12 +1404,12 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1489,17 +1485,17 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Red Van (stools)</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1569,17 +1565,17 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1590,14 +1586,10 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1652,15 +1644,19 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Mariah</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1669,12 +1665,12 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>work w/ Justin</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -1731,19 +1727,15 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>until 12:00</t>
-        </is>
-      </c>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1752,12 +1744,12 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>work w/ Justin</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1814,15 +1806,19 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>until 12:00</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1831,10 +1827,14 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>work w/ Leyna</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1885,19 +1885,15 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1906,14 +1902,10 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1964,15 +1956,19 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -1981,13 +1977,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2038,8 +2033,16 @@
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
@@ -2049,12 +2052,13 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2112,7 +2116,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2165,11 +2169,7 @@
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>4:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
@@ -2179,13 +2179,12 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2231,7 +2230,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2243,13 +2242,13 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+Rx</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2283,14 +2282,27 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2326,7 +2338,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>METRO #180, SHOREWOOD HILLS-UNIVERSITY</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2369,17 +2381,13 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>3650 UNIVERSITY AVENUE</t>
+          <t>METRO #180, SHOREWOOD HILLS-UNIVERSITY</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2416,7 +2424,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/BuM3RhBQEKw</t>
+          <t>3650 UNIVERSITY AVENUE</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2424,7 +2432,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:30 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2461,13 +2469,17 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/BuM3RhBQEKw</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2495,26 +2507,14 @@
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>FESTIVAL #2709, FORT ATKINSON - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2556,25 +2556,24 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>328 WASHINGTON ST</t>
+          <t>FESTIVAL #2709, FORT ATKINSON - LIFO</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2612,20 +2611,25 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
+          <t>328 WASHINGTON ST</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2659,24 +2663,20 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>work w/ Michael</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>PARTIAL RESET-REMAPPED</t>
+          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2722,22 +2722,26 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>work w/ Michael</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>PARTIAL RESET-REMAPPED</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2777,12 +2781,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2791,21 +2795,9 @@
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2844,12 +2836,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2860,15 +2852,19 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2912,12 +2908,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2928,12 +2924,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2983,12 +2979,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -2999,20 +2995,15 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3055,32 +3046,36 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -3127,36 +3122,32 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3199,12 +3190,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3215,15 +3206,20 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3266,12 +3262,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3282,12 +3278,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3335,25 +3331,33 @@
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Dan</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3405,12 +3409,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3454,9 +3458,21 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3478,7 +3494,11 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3505,49 +3525,18 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1811,12 +1811,12 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Missy</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>until 12:00</t>
+          <t>1st Day, work w/ Leyna</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1890,10 +1890,14 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>until 12:00</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1961,14 +1965,10 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -2040,10 +2040,14 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
@@ -2105,8 +2109,16 @@
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
@@ -2228,11 +2240,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>4:30 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
@@ -2282,7 +2290,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2338,7 +2346,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2381,7 +2389,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>METRO #180, SHOREWOOD HILLS-UNIVERSITY</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2424,7 +2432,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>3650 UNIVERSITY AVENUE</t>
+          <t>METRO #180, SHOREWOOD HILLS-UNIVERSITY</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2471,7 +2479,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/BuM3RhBQEKw</t>
+          <t>3650 UNIVERSITY AVENUE</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2508,7 +2516,11 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/BuM3RhBQEKw</t>
+        </is>
+      </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
@@ -2554,21 +2566,9 @@
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
@@ -2611,18 +2611,17 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
@@ -2663,15 +2662,20 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
@@ -2722,19 +2726,15 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>work w/ Michael</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
@@ -2781,17 +2781,17 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>work w/ Michael</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -2836,12 +2836,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Dan</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2908,12 +2908,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2979,12 +2979,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3046,12 +3046,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3122,18 +3122,17 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3190,17 +3189,18 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -3262,12 +3262,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3333,12 +3333,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3403,9 +3403,21 @@
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
@@ -3494,11 +3506,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
@@ -3527,7 +3535,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3538,6 +3546,37 @@
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -611,7 +611,11 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Please make sure your phones are charged before leaving the house in the morning</t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -638,7 +642,11 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Please let Jake know if anyone is unaccounted for at the meet</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -1503,7 +1503,7 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Red Van (stools)</t>
+          <t>Santa Fe (stools)</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1583,7 +1583,8 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>Red Van (stools)
+Supv Rx</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -1429,13 +1429,13 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
           <t>Driver,
-Wht Camry</t>
+Santa Fe</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1514,13 +1514,13 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe</t>
+Wht Camry</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1595,10 +1595,14 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1674,12 +1678,12 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>work w/ Justin</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -1753,12 +1757,12 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>work w/ Justin</t>
+          <t>work w/ Leyna</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1836,14 +1840,10 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1915,10 +1915,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1986,12 +1990,13 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2065,13 +2070,12 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2137,7 +2141,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2200,12 +2204,13 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2259,13 +2264,13 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Trainer</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2304,22 +2309,9 @@
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2404,7 +2396,11 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2449,7 +2445,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>5:30 AM MEET OFFICE</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2496,7 +2492,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2535,7 +2531,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2709, FORT ATKINSON - LIFO</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2582,7 +2578,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>FESTIVAL #2709, FORT ATKINSON - LIFO</t>
+          <t>328 WASHINGTON ST</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2637,7 +2633,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>328 WASHINGTON ST</t>
+          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2689,7 +2685,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/E1u3J2TBaJA2</t>
+          <t>PARTIAL RESET-REMAPPED</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2746,11 +2742,7 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>PARTIAL RESET-REMAPPED</t>
-        </is>
-      </c>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2804,9 +2796,21 @@
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2861,19 +2865,15 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2933,12 +2933,12 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3004,15 +3004,20 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3071,20 +3076,15 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -3147,15 +3147,20 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3215,20 +3220,15 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3287,12 +3287,12 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3358,15 +3358,19 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr"/>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3430,12 +3434,12 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -3479,21 +3483,9 @@
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -2938,10 +2938,15 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -3009,15 +3014,10 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3152,15 +3152,10 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3225,7 +3220,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3292,10 +3287,14 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr"/>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3363,7 +3362,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">

--- a/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
+++ b/01-18-26 to 01-24-26 Milwaukee Schedule.xlsx
@@ -576,16 +576,8 @@
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DJ </t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Bags 1-3</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -3014,7 +3006,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3081,7 +3073,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3152,7 +3144,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3220,10 +3212,14 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
+          <t>Dan</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3287,7 +3283,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Dan</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -3362,7 +3358,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -3431,21 +3427,9 @@
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
